--- a/data/availability of demographics data.xlsx
+++ b/data/availability of demographics data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/irap-reliability-meta-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E866CDD9-942A-A942-BF2D-C2788E61D16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4D8F7-770D-F441-9836-0ECC763C3529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="740" windowWidth="27640" windowHeight="16540" xr2:uid="{87CD2242-47C1-9145-8B83-6FBB5A69B516}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>domain</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>age and gender present in data</t>
+  </si>
+  <si>
+    <t>Self-competence (am)</t>
+  </si>
+  <si>
+    <t>Self-competence (want to be)</t>
+  </si>
+  <si>
+    <t>Data was not supplied by authors</t>
+  </si>
+  <si>
+    <t>Professor competence</t>
   </si>
 </sst>
 </file>
@@ -534,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CE6BAB-E489-B54F-B027-8ADD49BBF93D}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,108 +780,108 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="C23" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="C28" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>13</v>
+      <c r="C29" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6" t="b">
         <v>1</v>
@@ -880,61 +892,94 @@
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="6" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="B37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="6" t="b">
+      <c r="C38" s="6" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C36">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
